--- a/Jogos_do_Dia_FlashScore/2023-05-30_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2023-05-30_Jogos_do_Dia_FlashScore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG18"/>
+  <dimension ref="A1:FG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7064,415 +7064,153 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELEGATION </t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="BE14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="BI14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BK14" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="BM14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="BX14" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="BY14" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="CA14" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="CB14" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="CC14" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="CE14" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="CF14" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="CG14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="CI14" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="CJ14" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="CK14" t="n">
-        <v>11</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>11</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>1.05</v>
-      </c>
+          <t>ROUND 36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
       <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="n">
-        <v>21</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>21</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
-      <c r="DA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="DB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="DC14" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="DD14" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
       <c r="DE14" t="inlineStr"/>
       <c r="DF14" t="inlineStr"/>
       <c r="DG14" t="inlineStr"/>
       <c r="DH14" t="inlineStr"/>
-      <c r="DI14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>7</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>6</v>
-      </c>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr"/>
+      <c r="DU14" t="inlineStr"/>
+      <c r="DV14" t="inlineStr"/>
+      <c r="DW14" t="inlineStr"/>
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr"/>
       <c r="EA14" t="inlineStr"/>
       <c r="EB14" t="inlineStr"/>
       <c r="EC14" t="inlineStr"/>
@@ -7481,81 +7219,31 @@
       <c r="EF14" t="inlineStr"/>
       <c r="EG14" t="inlineStr"/>
       <c r="EH14" t="inlineStr"/>
-      <c r="EI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>10</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>13</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="EM14" t="n">
-        <v>11</v>
-      </c>
-      <c r="EN14" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>10</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>12</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>23</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>29</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>21</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>26</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>41</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>41</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>51</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>126</v>
-      </c>
+      <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr"/>
+      <c r="EP14" t="inlineStr"/>
+      <c r="EQ14" t="inlineStr"/>
+      <c r="ER14" t="inlineStr"/>
+      <c r="ES14" t="inlineStr"/>
+      <c r="ET14" t="inlineStr"/>
+      <c r="EU14" t="inlineStr"/>
+      <c r="EV14" t="inlineStr"/>
+      <c r="EW14" t="inlineStr"/>
+      <c r="EX14" t="inlineStr"/>
+      <c r="EY14" t="inlineStr"/>
+      <c r="EZ14" t="inlineStr"/>
+      <c r="FA14" t="inlineStr"/>
+      <c r="FB14" t="inlineStr"/>
+      <c r="FC14" t="inlineStr"/>
+      <c r="FD14" t="inlineStr"/>
+      <c r="FE14" t="inlineStr"/>
+      <c r="FF14" t="inlineStr"/>
+      <c r="FG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7565,27 +7253,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MONTENEGRO - PRVA CRNOGORSKA LIGA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Berane</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELEGATION </t>
+          <t>ROUND 36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -7754,389 +7442,355 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLAY OFFS </t>
+          <t xml:space="preserve">RELEGATION </t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
         <v>2.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="V16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG16" t="n">
         <v>2.63</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AH16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AV16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AW16" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>1.05</v>
       </c>
       <c r="BB16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
+        <v>7.9</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.05</v>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="BE16" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="BM16" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+        <v>2.1</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>2.1</v>
       </c>
       <c r="BQ16" t="n">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
+        <v>1.7</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1.7</v>
       </c>
       <c r="BU16" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="BX16" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="BY16" t="n">
-        <v>6.15</v>
+        <v>4.04</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="CA16" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="CB16" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="CC16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CD16" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="CE16" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="CF16" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="CG16" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="CI16" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="CJ16" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="CK16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="CL16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CM16" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="CN16" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
+        <v>1.05</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>11</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>1.05</v>
       </c>
       <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
       <c r="CS16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="CT16" t="n">
-        <v>34</v>
-      </c>
-      <c r="CU16" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="CV16" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
+        <v>1.02</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>21</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>1.02</v>
       </c>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="inlineStr"/>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
       <c r="DA16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="DB16" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="DC16" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="DD16" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="DE16" t="inlineStr"/>
@@ -8144,61 +7798,61 @@
       <c r="DG16" t="inlineStr"/>
       <c r="DH16" t="inlineStr"/>
       <c r="DI16" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2.67</v>
+        <v>1.82</v>
       </c>
       <c r="DK16" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="DL16" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="DM16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="DP16" t="n">
         <v>1.32</v>
       </c>
-      <c r="DN16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>1.57</v>
-      </c>
       <c r="DQ16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="DT16" t="n">
         <v>1.18</v>
       </c>
-      <c r="DR16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="DU16" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="DV16" t="n">
-        <v>7.7</v>
+        <v>4.25</v>
       </c>
       <c r="DW16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="DY16" t="inlineStr"/>
-      <c r="DZ16" t="inlineStr"/>
-      <c r="EA16" t="n">
-        <v>7</v>
-      </c>
-      <c r="EB16" t="n">
         <v>1.1</v>
       </c>
+      <c r="DY16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>6</v>
+      </c>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr"/>
       <c r="EC16" t="inlineStr"/>
       <c r="ED16" t="inlineStr"/>
       <c r="EE16" t="inlineStr"/>
@@ -8206,67 +7860,67 @@
       <c r="EG16" t="inlineStr"/>
       <c r="EH16" t="inlineStr"/>
       <c r="EI16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="EJ16" t="n">
         <v>10</v>
       </c>
       <c r="EK16" t="n">
+        <v>13</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>11</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>7</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EP16" t="n">
         <v>19</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EQ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>10</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>12</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>23</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>29</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>21</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>26</v>
+      </c>
+      <c r="EX16" t="n">
         <v>41</v>
       </c>
-      <c r="EM16" t="n">
-        <v>7</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>6</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>9</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>15</v>
-      </c>
-      <c r="ET16" t="n">
+      <c r="EY16" t="n">
         <v>41</v>
       </c>
-      <c r="EU16" t="n">
-        <v>17</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>17</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>29</v>
-      </c>
-      <c r="EX16" t="n">
+      <c r="EZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="FC16" t="n">
         <v>51</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>81</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>67</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>81</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>41</v>
       </c>
       <c r="FD16" t="n">
         <v>41</v>
@@ -8275,10 +7929,10 @@
         <v>51</v>
       </c>
       <c r="FF16" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="FG16" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -8289,22 +7943,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NORTHERN IRELAND - NIFL PREMIERSHIP</t>
+          <t>MONTENEGRO - PRVA CRNOGORSKA LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Annagh</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dungannon</t>
+          <t>Berane</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -8312,228 +7966,100 @@
           <t xml:space="preserve">RELEGATION </t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="BX17" t="n">
-        <v>1.47</v>
-      </c>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr"/>
       <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>1.19</v>
-      </c>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="inlineStr"/>
       <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>1.07</v>
-      </c>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
       <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="CV17" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="inlineStr"/>
       <c r="CY17" t="inlineStr"/>
@@ -8546,12 +8072,8 @@
       <c r="DF17" t="inlineStr"/>
       <c r="DG17" t="inlineStr"/>
       <c r="DH17" t="inlineStr"/>
-      <c r="DI17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>1.53</v>
-      </c>
+      <c r="DI17" t="inlineStr"/>
+      <c r="DJ17" t="inlineStr"/>
       <c r="DK17" t="inlineStr"/>
       <c r="DL17" t="inlineStr"/>
       <c r="DM17" t="inlineStr"/>
@@ -8576,81 +8098,31 @@
       <c r="EF17" t="inlineStr"/>
       <c r="EG17" t="inlineStr"/>
       <c r="EH17" t="inlineStr"/>
-      <c r="EI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>7</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>15</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>31</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>15</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>13</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>17</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>67</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>46</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>46</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>56</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>17</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>36</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>67</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>67</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>67</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>67</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>67</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>67</v>
-      </c>
+      <c r="EI17" t="inlineStr"/>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr"/>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr"/>
+      <c r="ET17" t="inlineStr"/>
+      <c r="EU17" t="inlineStr"/>
+      <c r="EV17" t="inlineStr"/>
+      <c r="EW17" t="inlineStr"/>
+      <c r="EX17" t="inlineStr"/>
+      <c r="EY17" t="inlineStr"/>
+      <c r="EZ17" t="inlineStr"/>
+      <c r="FA17" t="inlineStr"/>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr"/>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8660,401 +8132,451 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">APERTURA </t>
+          <t xml:space="preserve">PLAY OFFS </t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>2.1</v>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
       </c>
       <c r="Y18" t="n">
-        <v>6.3</v>
+        <v>6.55</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
       </c>
       <c r="AG18" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AN18" t="n">
         <v>1.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT18" t="n">
         <v>1.91</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AV18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AX18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
       </c>
       <c r="BA18" t="n">
         <v>1.05</v>
       </c>
       <c r="BB18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="BE18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
       </c>
       <c r="BI18" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="BM18" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
       </c>
       <c r="BQ18" t="n">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="BR18" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="BU18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BV18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="BY18" t="n">
-        <v>5.85</v>
+        <v>6.15</v>
       </c>
       <c r="BZ18" t="n">
         <v>1.08</v>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="CC18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
       </c>
       <c r="CG18" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="CH18" t="n">
         <v>1.02</v>
       </c>
-      <c r="CI18" t="n">
-        <v>10</v>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="CK18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="CN18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
       </c>
       <c r="CO18" t="inlineStr"/>
       <c r="CP18" t="inlineStr"/>
       <c r="CQ18" t="inlineStr"/>
       <c r="CR18" t="inlineStr"/>
       <c r="CS18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CT18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>29</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>1.01</v>
+        <v>34</v>
+      </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
       </c>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="inlineStr"/>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
-      <c r="DA18" t="inlineStr"/>
-      <c r="DB18" t="inlineStr"/>
-      <c r="DC18" t="inlineStr"/>
-      <c r="DD18" t="inlineStr"/>
+      <c r="DA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
       <c r="DE18" t="inlineStr"/>
       <c r="DF18" t="inlineStr"/>
       <c r="DG18" t="inlineStr"/>
       <c r="DH18" t="inlineStr"/>
       <c r="DI18" t="n">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="DJ18" t="n">
-        <v>1.7</v>
+        <v>2.67</v>
       </c>
       <c r="DK18" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="DL18" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="DM18" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="DN18" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="DO18" t="n">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="DP18" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="DQ18" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="DR18" t="n">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="DS18" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="DT18" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="DU18" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="DV18" t="n">
-        <v>4.15</v>
+        <v>7.7</v>
       </c>
       <c r="DW18" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="DX18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="EA18" t="inlineStr"/>
-      <c r="EB18" t="inlineStr"/>
+        <v>1.17</v>
+      </c>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>1.1</v>
+      </c>
       <c r="EC18" t="inlineStr"/>
       <c r="ED18" t="inlineStr"/>
       <c r="EE18" t="inlineStr"/>
@@ -9062,78 +8584,934 @@
       <c r="EG18" t="inlineStr"/>
       <c r="EH18" t="inlineStr"/>
       <c r="EI18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>7</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="EQ18" t="n">
         <v>9.5</v>
       </c>
-      <c r="EJ18" t="n">
-        <v>8</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="EM18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="EN18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="EO18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="EQ18" t="n">
-        <v>15</v>
-      </c>
       <c r="ER18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="ES18" t="n">
         <v>15</v>
       </c>
       <c r="ET18" t="n">
+        <v>41</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>17</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>17</v>
+      </c>
+      <c r="EW18" t="n">
         <v>29</v>
-      </c>
-      <c r="EU18" t="n">
-        <v>29</v>
-      </c>
-      <c r="EV18" t="n">
-        <v>23</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>34</v>
       </c>
       <c r="EX18" t="n">
         <v>51</v>
       </c>
       <c r="EY18" t="n">
+        <v>81</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="FC18" t="n">
         <v>41</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FD18" t="n">
         <v>41</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FE18" t="n">
         <v>51</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>101</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>51</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>67</v>
       </c>
       <c r="FF18" t="n">
         <v>101</v>
       </c>
       <c r="FG18" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>30/05/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NORTHERN IRELAND - NIFL PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Annagh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dungannon</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RELEGATION </t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr"/>
+      <c r="DG19" t="inlineStr"/>
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="DK19" t="inlineStr"/>
+      <c r="DL19" t="inlineStr"/>
+      <c r="DM19" t="inlineStr"/>
+      <c r="DN19" t="inlineStr"/>
+      <c r="DO19" t="inlineStr"/>
+      <c r="DP19" t="inlineStr"/>
+      <c r="DQ19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr"/>
+      <c r="DS19" t="inlineStr"/>
+      <c r="DT19" t="inlineStr"/>
+      <c r="DU19" t="inlineStr"/>
+      <c r="DV19" t="inlineStr"/>
+      <c r="DW19" t="inlineStr"/>
+      <c r="DX19" t="inlineStr"/>
+      <c r="DY19" t="inlineStr"/>
+      <c r="DZ19" t="inlineStr"/>
+      <c r="EA19" t="inlineStr"/>
+      <c r="EB19" t="inlineStr"/>
+      <c r="EC19" t="inlineStr"/>
+      <c r="ED19" t="inlineStr"/>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr"/>
+      <c r="EI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>15</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>31</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>15</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>13</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>17</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>67</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>46</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>46</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>56</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>36</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>67</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>67</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>67</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>67</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>30/05/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APERTURA </t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="BM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="BU20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="BY20" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="CK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="n">
+        <v>29</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>29</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW20" t="inlineStr"/>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr"/>
+      <c r="DG20" t="inlineStr"/>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="EA20" t="inlineStr"/>
+      <c r="EB20" t="inlineStr"/>
+      <c r="EC20" t="inlineStr"/>
+      <c r="ED20" t="inlineStr"/>
+      <c r="EE20" t="inlineStr"/>
+      <c r="EF20" t="inlineStr"/>
+      <c r="EG20" t="inlineStr"/>
+      <c r="EH20" t="inlineStr"/>
+      <c r="EI20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>15</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>29</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>29</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>23</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>34</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>51</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>51</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>67</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>101</v>
+      </c>
+      <c r="FG20" t="n">
         <v>251</v>
       </c>
     </row>
